--- a/CSVStats.xlsx
+++ b/CSVStats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t xml:space="preserve">Exercise </t>
   </si>
@@ -124,8 +124,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -151,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -162,6 +164,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -172,6 +175,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -549,6 +553,12 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>130</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
@@ -572,461 +582,431 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
+      <c r="A16">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>175</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
-        <v>130</v>
-      </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>175</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>160</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>175</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+    </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1</v>
+      <c r="B31" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
-        <v>160</v>
-      </c>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>175</v>
-      </c>
-      <c r="D32">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="B43" t="s">
-        <v>12</v>
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>190</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>175</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1</v>
+      <c r="B46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
-        <v>190</v>
-      </c>
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>175</v>
-      </c>
-      <c r="D47">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="B49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="B56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="B57" t="s">
-        <v>11</v>
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
+      <c r="A58">
+        <v>220</v>
+      </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>175</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>1</v>
+      <c r="B61" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
-        <v>220</v>
-      </c>
       <c r="B62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62">
-        <v>175</v>
-      </c>
-      <c r="D62">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="B63" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="B64" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="B65" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="B66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="B67" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="B68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>250</v>
+      </c>
+      <c r="B72" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="B72" t="s">
-        <v>11</v>
+      <c r="C72">
+        <v>175</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="B73" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>1</v>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77">
-        <v>250</v>
-      </c>
       <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77">
-        <v>175</v>
-      </c>
-      <c r="D77">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="B78" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="B79" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="B80" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
         <v>12</v>
       </c>
     </row>

--- a/CSVStats.xlsx
+++ b/CSVStats.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -564,46 +564,100 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9">
+        <v>205</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -630,61 +684,121 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>2</v>
       </c>
+      <c r="C17">
+        <v>155</v>
+      </c>
+      <c r="D17">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>4</v>
       </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>5</v>
       </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>6</v>
       </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>7</v>
       </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>8</v>
       </c>
+      <c r="C22">
+        <v>105</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>9</v>
       </c>
+      <c r="C23">
+        <v>240</v>
+      </c>
+      <c r="D23">
+        <v>160</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>10</v>
       </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>11</v>
       </c>
+      <c r="C25">
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>12</v>
       </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
@@ -711,61 +825,121 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>2</v>
       </c>
+      <c r="C31">
+        <v>185</v>
+      </c>
+      <c r="D31">
+        <v>115</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>4</v>
       </c>
+      <c r="C32">
+        <v>130</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>5</v>
       </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>6</v>
       </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>7</v>
       </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>8</v>
       </c>
+      <c r="C36">
+        <v>130</v>
+      </c>
+      <c r="D36">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>9</v>
       </c>
+      <c r="C37">
+        <v>295</v>
+      </c>
+      <c r="D37">
+        <v>190</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>10</v>
       </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>11</v>
       </c>
+      <c r="C39">
+        <v>190</v>
+      </c>
+      <c r="D39">
+        <v>190</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>12</v>
       </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
@@ -790,12 +964,6 @@
       </c>
       <c r="B44" t="s">
         <v>3</v>
-      </c>
-      <c r="C44">
-        <v>175</v>
-      </c>
-      <c r="D44">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5">

--- a/CSVStats.xlsx
+++ b/CSVStats.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="0" windowWidth="17460" windowHeight="20520" tabRatio="500"/>
+    <workbookView xWindow="16185" yWindow="0" windowWidth="17460" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -504,18 +504,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -802,51 +802,111 @@
       <c r="B45" t="s">
         <v>2</v>
       </c>
+      <c r="C45">
+        <v>215</v>
+      </c>
+      <c r="D45">
+        <v>130</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>4</v>
       </c>
+      <c r="C46">
+        <v>150</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>5</v>
       </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
         <v>6</v>
       </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="B49" t="s">
         <v>7</v>
       </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" t="s">
         <v>8</v>
       </c>
+      <c r="C50">
+        <v>145</v>
+      </c>
+      <c r="D50">
+        <v>85</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" t="s">
         <v>9</v>
       </c>
+      <c r="C51">
+        <v>335</v>
+      </c>
+      <c r="D51">
+        <v>205</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" t="s">
         <v>10</v>
       </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" t="s">
         <v>11</v>
       </c>
+      <c r="C53">
+        <v>215</v>
+      </c>
+      <c r="D53">
+        <v>215</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="B54" t="s">
         <v>12</v>
       </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
@@ -883,51 +943,111 @@
       <c r="B59" t="s">
         <v>2</v>
       </c>
+      <c r="C59">
+        <v>225</v>
+      </c>
+      <c r="D59">
+        <v>140</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="B60" t="s">
         <v>4</v>
       </c>
+      <c r="C60">
+        <v>160</v>
+      </c>
+      <c r="D60">
+        <v>110</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="B61" t="s">
         <v>5</v>
       </c>
+      <c r="C61">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>35</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" t="s">
         <v>6</v>
       </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="B63" t="s">
         <v>7</v>
       </c>
+      <c r="C63">
+        <v>45</v>
+      </c>
+      <c r="D63">
+        <v>45</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="B64" t="s">
         <v>8</v>
       </c>
+      <c r="C64">
+        <v>155</v>
+      </c>
+      <c r="D64">
+        <v>90</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="B65" t="s">
         <v>9</v>
       </c>
+      <c r="C65">
+        <v>350</v>
+      </c>
+      <c r="D65">
+        <v>220</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="B66" t="s">
         <v>10</v>
       </c>
+      <c r="C66">
+        <v>35</v>
+      </c>
+      <c r="D66">
+        <v>35</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="B67" t="s">
         <v>11</v>
       </c>
+      <c r="C67">
+        <v>225</v>
+      </c>
+      <c r="D67">
+        <v>225</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="B68" t="s">
         <v>12</v>
       </c>
+      <c r="C68">
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
@@ -964,50 +1084,110 @@
       <c r="B73" t="s">
         <v>2</v>
       </c>
+      <c r="C73">
+        <v>230</v>
+      </c>
+      <c r="D73">
+        <v>150</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="B74" t="s">
         <v>4</v>
       </c>
+      <c r="C74">
+        <v>170</v>
+      </c>
+      <c r="D74">
+        <v>110</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="B75" t="s">
         <v>5</v>
       </c>
+      <c r="C75">
+        <v>40</v>
+      </c>
+      <c r="D75">
+        <v>40</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="B76" t="s">
         <v>6</v>
       </c>
+      <c r="C76">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>30</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="B77" t="s">
         <v>7</v>
       </c>
+      <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="B78" t="s">
         <v>8</v>
       </c>
+      <c r="C78">
+        <v>160</v>
+      </c>
+      <c r="D78">
+        <v>95</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="B79" t="s">
         <v>9</v>
       </c>
+      <c r="C79">
+        <v>365</v>
+      </c>
+      <c r="D79">
+        <v>230</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="B80" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81">
+        <v>245</v>
+      </c>
+      <c r="D81">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>12</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CSVStats.xlsx
+++ b/CSVStats.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16185" yWindow="0" windowWidth="17460" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,8 +100,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +120,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,9 +163,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -504,268 +520,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>175</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>100</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>130</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>75</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="3">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="3">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="3">
+        <v>205</v>
+      </c>
+      <c r="D9" s="3">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="3">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="3">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>130</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>175</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="3">
+        <v>205</v>
+      </c>
+      <c r="D16" s="3">
+        <v>130</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>155</v>
+      </c>
+      <c r="D17" s="3">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" t="s">
+      <c r="D18" s="3">
+        <v>75</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>105</v>
+      </c>
+      <c r="D22" s="3">
+        <v>70</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>240</v>
+      </c>
+      <c r="D23" s="3">
+        <v>160</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3">
+        <v>150</v>
+      </c>
+      <c r="D25" s="3">
+        <v>150</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>160</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>250</v>
+      </c>
+      <c r="D30" s="3">
+        <v>150</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" t="s">
+      <c r="C31" s="3">
+        <v>185</v>
+      </c>
+      <c r="D31" s="3">
+        <v>115</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" t="s">
+      <c r="C32" s="3">
+        <v>130</v>
+      </c>
+      <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" t="s">
+      <c r="C33" s="3">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3">
+        <v>25</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
+      <c r="C34" s="3">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" t="s">
+      <c r="C35" s="3">
+        <v>40</v>
+      </c>
+      <c r="D35" s="3">
+        <v>40</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
+      <c r="C36" s="3">
+        <v>130</v>
+      </c>
+      <c r="D36" s="3">
+        <v>75</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" t="s">
+      <c r="C37" s="3">
+        <v>295</v>
+      </c>
+      <c r="D37" s="3">
+        <v>190</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" t="s">
+      <c r="C38" s="3">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" t="s">
+      <c r="C39" s="3">
+        <v>190</v>
+      </c>
+      <c r="D39" s="3">
+        <v>190</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>175</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
+      <c r="C40" s="3">
+        <v>25</v>
+      </c>
+      <c r="D40" s="3">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
